--- a/Data/out.xlsx
+++ b/Data/out.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_1</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_1.mp3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_2</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_2.mp3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_3</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_3.mp3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_4</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_4.mp3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_5</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_5.mp3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_6</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_6.mp3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_7</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_7.mp3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_8</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_8.mp3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_9</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_9.mp3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_10</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_10.mp3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_11</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_11.mp3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_12</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_12.mp3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_13</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_13.mp3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_14</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_14.mp3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_15</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_15.mp3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_16</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_16.mp3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_17</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_17.mp3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_18</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_18.mp3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_19</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_19.mp3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_20</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_20.mp3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_21</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_21.mp3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_22</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_22.mp3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_23</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_23.mp3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_24</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_24.mp3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_25</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_25.mp3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_26</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_26.mp3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_27</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_27.mp3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_28</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_28.mp3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_29</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_29.mp3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_30</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_30.mp3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_31</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_31.mp3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_32</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_32.mp3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_33</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_33.mp3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_34</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_34.mp3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_35</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_35.mp3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_36</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_36.mp3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_37</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_37.mp3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_38</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_38.mp3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_39</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_39.mp3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_40</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_40.mp3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_41</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_41.mp3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_42</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_42.mp3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_43</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_43.mp3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_44</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_44.mp3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_45</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_45.mp3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_46</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_46.mp3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_47</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_47.mp3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_48</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_48.mp3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_49</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_49.mp3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_50</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_50.mp3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_51</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_51.mp3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_52</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_52.mp3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_53</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_53.mp3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_54</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_54.mp3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_55</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_55.mp3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_56</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_56.mp3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_57</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_57.mp3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_58</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_58.mp3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_59</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_59.mp3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_60</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_60.mp3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_61</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_61.mp3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_62</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_62.mp3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_63</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_63.mp3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_64</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_64.mp3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_65</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_65.mp3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_66</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_66.mp3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_67</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_67.mp3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_68</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_68.mp3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_69</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_69.mp3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_70</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_70.mp3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_71</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_71.mp3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_72</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_72.mp3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_73</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_73.mp3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3854,7 +3854,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_74</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_74.mp3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_75</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_75.mp3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_76</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_76.mp3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_77</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_77.mp3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_78</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_78.mp3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_79</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_79.mp3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_80</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_80.mp3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_81</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_81.mp3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_82</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_82.mp3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_83</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_83.mp3</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_84</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_84.mp3</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_85</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_85.mp3</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_86</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_86.mp3</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_87</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_87.mp3</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_88</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/filler/track_88.mp3</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_89</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/filler/track_89.mp3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_90</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_90.mp3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_91</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_91.mp3</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_92</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_92.mp3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_93</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_93.mp3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_94</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_94.mp3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_95</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_95.mp3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_96</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_96.mp3</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_97</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_97.mp3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_98</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_98.mp3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_99</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_99.mp3</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_100</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_100.mp3</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_101</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_101.mp3</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_102</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_102.mp3</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_103</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_103.mp3</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_104</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_104.mp3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_105</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_105.mp3</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_106</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_106.mp3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_107</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_107.mp3</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_108</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_108.mp3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_109</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_109.mp3</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_110</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_110.mp3</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_111</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_111.mp3</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_112</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_112.mp3</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_113</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_113.mp3</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_114</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_114.mp3</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_115</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_115.mp3</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_116</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_116.mp3</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_117</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_117.mp3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_118</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/filled/track_118.mp3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5924,7 +5924,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_119</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_119.mp3</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5970,7 +5970,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_120</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/filled/track_120.mp3</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_1s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_1s.mp3</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_2s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_2s.mp3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6108,7 +6108,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_3s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_3s.mp3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_4s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_4s.mp3</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_5s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_5s.mp3</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_6s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_6s.mp3</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6292,7 +6292,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_7s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_7s.mp3</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_8s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_8s.mp3</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_9s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_9s.mp3</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_10s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_10s.mp3</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6476,7 +6476,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_11s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_11s.mp3</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_12s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_12s.mp3</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_13s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_13s.mp3</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6614,7 +6614,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_14s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_14s.mp3</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_15s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_15s.mp3</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_16s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_16s.mp3</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_17s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_17s.mp3</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6798,7 +6798,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_18s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_18s.mp3</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_19s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_19s.mp3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_20s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_20s.mp3</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_21s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_21s.mp3</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_22s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_22s.mp3</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_23s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_23s.mp3</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_24s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_24s.mp3</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_25s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_25s.mp3</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7166,7 +7166,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_26s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_26s.mp3</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_27s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_27s.mp3</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_28s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_28s.mp3</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_90s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_90s.mp3</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_91s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_91s.mp3</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7396,7 +7396,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_92s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_92s.mp3</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_93s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_93s.mp3</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7488,7 +7488,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_94s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_94s.mp3</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_95s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_95s.mp3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_96s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_96s.mp3</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7626,7 +7626,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_97s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_97s.mp3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_98s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_98s.mp3</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_99s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_99s.mp3</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_100s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_100s.mp3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7810,7 +7810,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_101s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_101s.mp3</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_102s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_102s.mp3</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_103s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_103s.mp3</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_104s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_104s.mp3</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_105s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_105s.mp3</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_106s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_106s.mp3</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8086,7 +8086,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_107s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_107s.mp3</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8132,7 +8132,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_108s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_108s.mp3</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_109s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_109s.mp3</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8224,7 +8224,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_110s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_110s.mp3</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_111s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_111s.mp3</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_112s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_112s.mp3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8362,7 +8362,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_113s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_113s.mp3</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_114s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_114s.mp3</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_115s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_115s.mp3</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_116s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_116s.mp3</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8546,7 +8546,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_117s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_117s.mp3</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_118s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment2/real/silent/track_118s.mp3</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_119s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_119s.mp3</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_120s</t>
+          <t>/home/baserad/Documents/GitHub/ReactionTimeApplication/Data/Stimuli/Data/Experiment1/real/quiet/track_120s.mp3</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
